--- a/softComputing/inputs/structure.xlsx
+++ b/softComputing/inputs/structure.xlsx
@@ -118,19 +118,18 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="n">
+        <v>125</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>

--- a/softComputing/inputs/structure.xlsx
+++ b/softComputing/inputs/structure.xlsx
@@ -122,13 +122,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
